--- a/manager-charlie-prototype/Assets/_Common/DataResources/Contents/QnAContents.xlsx
+++ b/manager-charlie-prototype/Assets/_Common/DataResources/Contents/QnAContents.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GGulBBang\Desktop\Jobs\manager-charlie-prototype\Assets\_Home\DataResources\Contents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workSpace\manager-charlie\manager-charlie-prototype\Assets\_Common\DataResources\Contents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10515" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10512" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Contents1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="234">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -766,10 +766,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>mrre</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>tub</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -910,6 +906,50 @@
   </si>
   <si>
     <t>Correct</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Category</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>misterre</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hi1,hello1,hey1,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I'm good1,I'm happy1,great1,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>you too1,it is nice to meet you too1,it is good to see you too1,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>you too1,it is nice to meet you too1,it is good to see you too1,</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1283,15 +1323,15 @@
       <selection activeCell="D77" sqref="D77"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="14.75" style="1" customWidth="1"/>
-    <col min="2" max="3" width="8.75" style="1"/>
-    <col min="4" max="4" width="14.25" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.75" style="1"/>
+    <col min="1" max="1" width="14.69921875" style="1" customWidth="1"/>
+    <col min="2" max="3" width="8.69921875" style="1"/>
+    <col min="4" max="4" width="14.19921875" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.69921875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1305,7 +1345,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1319,7 +1359,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1333,7 +1373,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1347,7 +1387,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1361,7 +1401,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1375,7 +1415,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1389,7 +1429,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1403,7 +1443,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1417,7 +1457,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1431,7 +1471,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1445,7 +1485,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1459,7 +1499,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1473,7 +1513,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1487,7 +1527,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1501,7 +1541,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -1515,7 +1555,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -1529,7 +1569,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -1543,7 +1583,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -1557,7 +1597,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -1571,7 +1611,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -1585,7 +1625,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -1599,7 +1639,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -1613,7 +1653,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -1627,7 +1667,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -1641,7 +1681,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -1655,7 +1695,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -1669,7 +1709,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -1683,7 +1723,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -1697,7 +1737,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -1711,7 +1751,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -1725,7 +1765,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -1739,7 +1779,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -1753,7 +1793,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -1767,7 +1807,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -1781,7 +1821,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -1795,7 +1835,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -1809,7 +1849,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -1823,7 +1863,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -1837,7 +1877,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -1851,7 +1891,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -1865,7 +1905,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -1879,7 +1919,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -1893,7 +1933,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -1907,7 +1947,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -1921,7 +1961,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -1935,7 +1975,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -1949,7 +1989,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -1963,7 +2003,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -1977,7 +2017,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -1991,7 +2031,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -2005,7 +2045,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -2019,7 +2059,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -2033,7 +2073,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -2047,7 +2087,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -2061,7 +2101,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -2075,7 +2115,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -2089,7 +2129,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -2103,7 +2143,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -2117,7 +2157,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -2131,7 +2171,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -2145,7 +2185,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -2159,7 +2199,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -2173,7 +2213,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A64" s="1">
         <v>63</v>
       </c>
@@ -2187,7 +2227,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A65" s="1">
         <v>64</v>
       </c>
@@ -2201,7 +2241,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A66" s="1">
         <v>65</v>
       </c>
@@ -2215,7 +2255,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A67" s="1">
         <v>66</v>
       </c>
@@ -2229,7 +2269,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A68" s="1">
         <v>67</v>
       </c>
@@ -2243,7 +2283,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A69" s="1">
         <v>68</v>
       </c>
@@ -2257,7 +2297,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A70" s="1">
         <v>69</v>
       </c>
@@ -2271,7 +2311,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A71" s="1">
         <v>70</v>
       </c>
@@ -2285,7 +2325,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A72" s="1">
         <v>71</v>
       </c>
@@ -2299,7 +2339,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A73" s="1">
         <v>72</v>
       </c>
@@ -2313,7 +2353,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A74" s="1">
         <v>73</v>
       </c>
@@ -2327,7 +2367,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A75" s="1">
         <v>74</v>
       </c>
@@ -2341,7 +2381,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A76" s="1">
         <v>75</v>
       </c>
@@ -2355,7 +2395,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A77" s="1">
         <v>76</v>
       </c>
@@ -2369,7 +2409,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A78" s="1">
         <v>77</v>
       </c>
@@ -2383,7 +2423,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A79" s="1">
         <v>78</v>
       </c>
@@ -2408,22 +2448,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="8.75" style="1"/>
+    <col min="1" max="1" width="8.69921875" style="1"/>
     <col min="2" max="2" width="12.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.75" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.75" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.75" style="1"/>
+    <col min="3" max="3" width="16.69921875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.59765625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.59765625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.69921875" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.69921875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2434,7 +2474,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>55</v>
@@ -2443,7 +2483,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2463,7 +2503,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -2483,7 +2523,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -2503,7 +2543,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -2523,7 +2563,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -2543,7 +2583,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -2563,7 +2603,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -2583,7 +2623,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -2603,7 +2643,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -2623,7 +2663,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -2643,7 +2683,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -2663,7 +2703,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -2683,7 +2723,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -2703,7 +2743,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -2723,7 +2763,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -2743,7 +2783,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -2763,7 +2803,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -2783,7 +2823,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -2803,7 +2843,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -2823,7 +2863,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -2843,7 +2883,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -2851,7 +2891,7 @@
         <v>3</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>78</v>
@@ -2860,10 +2900,10 @@
         <v>82</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -2871,7 +2911,7 @@
         <v>3</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>78</v>
@@ -2883,7 +2923,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -2891,7 +2931,7 @@
         <v>3</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>81</v>
@@ -2903,7 +2943,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -2911,7 +2951,7 @@
         <v>3</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>81</v>
@@ -2923,7 +2963,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -2931,7 +2971,7 @@
         <v>3</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>81</v>
@@ -2943,7 +2983,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -2951,7 +2991,7 @@
         <v>3</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>82</v>
@@ -2963,7 +3003,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -2971,7 +3011,7 @@
         <v>3</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>78</v>
@@ -2983,7 +3023,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -2991,7 +3031,7 @@
         <v>3</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>82</v>
@@ -3003,7 +3043,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -3011,7 +3051,7 @@
         <v>3</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>83</v>
@@ -3023,7 +3063,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -3031,7 +3071,7 @@
         <v>3</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>83</v>
@@ -3043,7 +3083,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -3051,7 +3091,7 @@
         <v>4</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>78</v>
@@ -3063,7 +3103,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -3071,7 +3111,7 @@
         <v>4</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>78</v>
@@ -3083,7 +3123,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -3091,7 +3131,7 @@
         <v>4</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>81</v>
@@ -3103,7 +3143,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -3111,7 +3151,7 @@
         <v>4</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>81</v>
@@ -3123,7 +3163,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -3131,7 +3171,7 @@
         <v>4</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>78</v>
@@ -3143,7 +3183,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -3151,7 +3191,7 @@
         <v>4</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>82</v>
@@ -3163,7 +3203,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -3171,7 +3211,7 @@
         <v>4</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>82</v>
@@ -3183,7 +3223,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -3191,7 +3231,7 @@
         <v>4</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>78</v>
@@ -3203,7 +3243,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -3211,7 +3251,7 @@
         <v>4</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>83</v>
@@ -3223,7 +3263,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -3231,7 +3271,7 @@
         <v>4</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>78</v>
@@ -3243,7 +3283,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -3251,10 +3291,10 @@
         <v>5</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>78</v>
@@ -3263,7 +3303,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -3271,7 +3311,7 @@
         <v>5</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>82</v>
@@ -3283,7 +3323,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -3291,19 +3331,19 @@
         <v>5</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>78</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F44" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -3311,7 +3351,7 @@
         <v>5</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>81</v>
@@ -3323,7 +3363,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -3331,7 +3371,7 @@
         <v>5</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>81</v>
@@ -3343,7 +3383,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -3351,7 +3391,7 @@
         <v>5</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>82</v>
@@ -3363,7 +3403,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -3371,7 +3411,7 @@
         <v>5</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>78</v>
@@ -3383,7 +3423,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -3391,7 +3431,7 @@
         <v>5</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>83</v>
@@ -3403,7 +3443,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -3411,19 +3451,19 @@
         <v>5</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -3431,13 +3471,13 @@
         <v>5</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F51" s="1" t="s">
         <v>75</v>
@@ -3452,22 +3492,23 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="2" width="8.75" style="1"/>
-    <col min="3" max="3" width="15.875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="52.75" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.75" style="1"/>
+    <col min="1" max="2" width="8.69921875" style="1"/>
+    <col min="3" max="3" width="15.8984375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="21" style="1" customWidth="1"/>
+    <col min="5" max="5" width="51.796875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.19921875" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.69921875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3475,16 +3516,19 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>223</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -3492,16 +3536,19 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -3509,16 +3556,19 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -3526,16 +3576,19 @@
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -3543,16 +3596,19 @@
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -3560,16 +3616,19 @@
         <v>1</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -3577,16 +3636,19 @@
         <v>1</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -3594,16 +3656,19 @@
         <v>1</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F8" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -3611,16 +3676,19 @@
         <v>1</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F9" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -3628,17 +3696,201 @@
         <v>1</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="E10" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>187</v>
+      <c r="F10" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1">
+        <v>2</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1">
+        <v>2</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1">
+        <v>2</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1">
+        <v>2</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1">
+        <v>2</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1">
+        <v>2</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1">
+        <v>2</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1">
+        <v>2</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1">
+        <v>2</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>229</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>